--- a/public/files/计算结果2017615.xlsx
+++ b/public/files/计算结果2017615.xlsx
@@ -764,7 +764,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>570012662</v>
+        <v>575800738</v>
       </c>
       <c r="B3" t="str">
         <v/>
@@ -958,7 +958,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>575803500</v>
+        <v>575804358</v>
       </c>
       <c r="B4" t="str">
         <v/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>576146792</v>
+        <v>576230395</v>
       </c>
       <c r="B5" t="str">
         <v/>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>576111822</v>
+        <v>570012629</v>
       </c>
       <c r="B6" t="str">
         <v/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>576163564</v>
+        <v>570012662</v>
       </c>
       <c r="B7" t="str">
         <v/>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>576200318</v>
+        <v>576146792</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>574565916</v>
+        <v>576201235</v>
       </c>
       <c r="B9" t="str">
         <v/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>574581540</v>
+        <v>576200318</v>
       </c>
       <c r="B10" t="str">
         <v/>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>570012629</v>
+        <v>576107081</v>
       </c>
       <c r="B11" t="str">
         <v/>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>570012663</v>
+        <v>575803500</v>
       </c>
       <c r="B12" t="str">
         <v/>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>576104645</v>
+        <v>574565916</v>
       </c>
       <c r="B14" t="str">
         <v/>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>575800738</v>
+        <v>576104645</v>
       </c>
       <c r="B15" t="str">
         <v/>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>576201235</v>
+        <v>576163566</v>
       </c>
       <c r="B16" t="str">
         <v/>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>576230395</v>
+        <v>576111822</v>
       </c>
       <c r="B17" t="str">
         <v/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>576163566</v>
+        <v>576163564</v>
       </c>
       <c r="B18" t="str">
         <v/>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>575804358</v>
+        <v>570012663</v>
       </c>
       <c r="B19" t="str">
         <v/>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>576107081</v>
+        <v>574581540</v>
       </c>
       <c r="B20" t="str">
         <v/>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>576198127</v>
+        <v>576137947</v>
       </c>
       <c r="B24" t="str">
         <v/>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>576158714</v>
+        <v>576198127</v>
       </c>
       <c r="B25" t="str">
         <v/>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>573004991</v>
+        <v>576158714</v>
       </c>
       <c r="B26" t="str">
         <v/>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>576137947</v>
+        <v>573004991</v>
       </c>
       <c r="B27" t="str">
         <v/>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>574582501</v>
+        <v>574585634</v>
       </c>
       <c r="B31" t="str">
         <v/>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>574585634</v>
+        <v>574582501</v>
       </c>
       <c r="B32" t="str">
         <v/>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>570551338</v>
+        <v>570551347</v>
       </c>
       <c r="B36" t="str">
         <v/>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>570551347</v>
+        <v>570003318</v>
       </c>
       <c r="B37" t="str">
         <v/>
@@ -7554,7 +7554,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>570003318</v>
+        <v>570551338</v>
       </c>
       <c r="B38" t="str">
         <v/>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>576175300</v>
+        <v>576166377</v>
       </c>
       <c r="B46" t="str">
         <v/>
@@ -9300,7 +9300,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>576166377</v>
+        <v>576175300</v>
       </c>
       <c r="B47" t="str">
         <v/>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>575801285</v>
+        <v>571245918</v>
       </c>
       <c r="B57" t="str">
         <v/>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>571245918</v>
+        <v>575801285</v>
       </c>
       <c r="B60" t="str">
         <v/>
